--- a/individual amortization tables/LoanTape 12.xlsx
+++ b/individual amortization tables/LoanTape 12.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24-02-2024</t>
+          <t>25-02-2024</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24-04-2024</t>
+          <t>25-04-2024</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24-05-2024</t>
+          <t>25-05-2024</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23-06-2024</t>
+          <t>25-06-2024</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23-07-2024</t>
+          <t>25-07-2024</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22-08-2024</t>
+          <t>25-08-2024</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21-09-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20-11-2024</t>
+          <t>25-11-2024</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20-12-2024</t>
+          <t>25-12-2024</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19-01-2025</t>
+          <t>25-01-2025</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18-02-2025</t>
+          <t>25-02-2025</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20-03-2025</t>
+          <t>25-03-2025</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19-04-2025</t>
+          <t>25-04-2025</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19-05-2025</t>
+          <t>25-05-2025</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18-06-2025</t>
+          <t>25-06-2025</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18-07-2025</t>
+          <t>25-07-2025</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17-08-2025</t>
+          <t>25-08-2025</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16-09-2025</t>
+          <t>25-09-2025</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16-10-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15-12-2025</t>
+          <t>25-12-2025</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14-01-2026</t>
+          <t>25-01-2026</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13-02-2026</t>
+          <t>25-02-2026</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15-03-2026</t>
+          <t>25-03-2026</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14-04-2026</t>
+          <t>25-04-2026</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14-05-2026</t>
+          <t>25-05-2026</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13-06-2026</t>
+          <t>25-06-2026</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13-07-2026</t>
+          <t>25-07-2026</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12-08-2026</t>
+          <t>25-08-2026</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11-09-2026</t>
+          <t>25-09-2026</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11-10-2026</t>
+          <t>25-10-2026</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10-11-2026</t>
+          <t>25-11-2026</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10-12-2026</t>
+          <t>25-12-2026</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>09-01-2027</t>
+          <t>25-01-2027</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1756,7 +1756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1082"/>
+  <dimension ref="A1:K1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
         <v>10000</v>
       </c>
       <c r="E32" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>258.04</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>9700.290000000001</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33">
@@ -2976,19 +2976,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9700.290000000001</v>
+        <v>10000</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>258.04</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5162,16 +5162,16 @@
         <v>9400.58</v>
       </c>
       <c r="E92" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>39.17</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>260.54</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>39.17</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>9100.870000000001</v>
+        <v>9400.58</v>
       </c>
     </row>
     <row r="93">
@@ -5196,19 +5196,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9100.870000000001</v>
+        <v>9400.58</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>39.17</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>260.54</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>39.17</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6272,16 +6272,16 @@
         <v>9100.870000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>37.92</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>261.79</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>37.92</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>8801.16</v>
+        <v>9100.870000000001</v>
       </c>
     </row>
     <row r="123">
@@ -6306,19 +6306,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8801.16</v>
+        <v>9100.870000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>37.92</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>261.79</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>37.92</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7382,16 +7382,16 @@
         <v>8801.16</v>
       </c>
       <c r="E152" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>263.04</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>8501.459999999999</v>
+        <v>8801.16</v>
       </c>
     </row>
     <row r="153">
@@ -7408,7 +7408,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>8501.459999999999</v>
+        <v>8801.16</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>8501.459999999999</v>
+        <v>8801.16</v>
       </c>
     </row>
     <row r="154">
@@ -7453,19 +7453,19 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>8501.459999999999</v>
+        <v>8801.16</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>36.67</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>263.04</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>36.67</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -8492,16 +8492,16 @@
         <v>8501.459999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>35.42</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>264.29</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>35.42</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>8201.75</v>
+        <v>8501.459999999999</v>
       </c>
     </row>
     <row r="183">
@@ -8518,7 +8518,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>8201.75</v>
+        <v>8501.459999999999</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>8201.75</v>
+        <v>8501.459999999999</v>
       </c>
     </row>
     <row r="184">
@@ -8563,19 +8563,19 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>8201.75</v>
+        <v>8501.459999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>35.42</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>264.29</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>35.42</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -9602,16 +9602,16 @@
         <v>8201.75</v>
       </c>
       <c r="E212" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>34.17</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>265.54</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>34.17</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
     </row>
     <row r="213">
@@ -9628,7 +9628,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
     </row>
     <row r="214">
@@ -9665,7 +9665,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
     </row>
     <row r="215">
@@ -9710,19 +9710,19 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7902.04</v>
+        <v>8201.75</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>34.17</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>265.54</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>34.17</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -10701,7 +10701,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -10712,16 +10712,16 @@
         <v>7902.04</v>
       </c>
       <c r="E242" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>32.93</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>266.78</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>32.93</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
     </row>
     <row r="243">
@@ -10738,7 +10738,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
     </row>
     <row r="244">
@@ -10775,7 +10775,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
     </row>
     <row r="245">
@@ -10812,7 +10812,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
     </row>
     <row r="246">
@@ -10857,19 +10857,19 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>7602.33</v>
+        <v>7902.04</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>32.93</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>266.78</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>32.93</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -11822,16 +11822,16 @@
         <v>7602.33</v>
       </c>
       <c r="E272" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>31.68</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>268.03</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>31.68</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
     </row>
     <row r="273">
@@ -11848,7 +11848,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
     </row>
     <row r="274">
@@ -11885,7 +11885,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
     </row>
     <row r="275">
@@ -11922,7 +11922,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
     </row>
     <row r="276">
@@ -11967,19 +11967,19 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>7302.62</v>
+        <v>7602.33</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>31.68</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>268.03</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>31.68</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -12932,16 +12932,16 @@
         <v>7302.62</v>
       </c>
       <c r="E302" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>30.43</v>
+        <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>269.28</v>
+        <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>30.43</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
     </row>
     <row r="303">
@@ -12958,7 +12958,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="K303" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
     </row>
     <row r="304">
@@ -12995,7 +12995,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
     </row>
     <row r="305">
@@ -13032,7 +13032,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="K305" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
     </row>
     <row r="306">
@@ -13069,7 +13069,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
     </row>
     <row r="307">
@@ -13114,19 +13114,19 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>7002.91</v>
+        <v>7302.62</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>269.28</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -14042,16 +14042,16 @@
         <v>7002.91</v>
       </c>
       <c r="E332" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>29.18</v>
+        <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>270.53</v>
+        <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>29.18</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="K332" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
     </row>
     <row r="333">
@@ -14068,7 +14068,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
     </row>
     <row r="334">
@@ -14105,7 +14105,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -14134,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="K334" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
     </row>
     <row r="335">
@@ -14142,7 +14142,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="K335" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
     </row>
     <row r="336">
@@ -14179,7 +14179,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="K336" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
     </row>
     <row r="337">
@@ -14224,19 +14224,19 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>6703.2</v>
+        <v>7002.91</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>29.18</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>270.53</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>29.18</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -15141,7 +15141,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -15152,16 +15152,16 @@
         <v>6703.2</v>
       </c>
       <c r="E362" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>27.93</v>
+        <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>271.78</v>
+        <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>27.93</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="K362" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="363">
@@ -15178,7 +15178,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="364">
@@ -15215,7 +15215,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="365">
@@ -15252,7 +15252,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="366">
@@ -15289,7 +15289,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="367">
@@ -15326,7 +15326,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
     </row>
     <row r="368">
@@ -15371,19 +15371,19 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>6403.49</v>
+        <v>6703.2</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>27.93</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>271.78</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>27.93</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -16262,16 +16262,16 @@
         <v>6403.49</v>
       </c>
       <c r="E392" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>273.03</v>
+        <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="K392" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="393">
@@ -16288,7 +16288,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="K393" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="394">
@@ -16325,7 +16325,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E394" t="n">
         <v>0</v>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="K394" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="395">
@@ -16362,7 +16362,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E395" t="n">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="K395" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="396">
@@ -16399,7 +16399,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="K396" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="397">
@@ -16436,7 +16436,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="K397" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="398">
@@ -16473,7 +16473,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E398" t="n">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
     </row>
     <row r="399">
@@ -16518,19 +16518,19 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>6103.78</v>
+        <v>6403.49</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>26.68</v>
       </c>
       <c r="G399" t="n">
-        <v>0</v>
+        <v>273.03</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>26.68</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -17361,7 +17361,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         <v>6103.78</v>
       </c>
       <c r="E422" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F422" t="n">
-        <v>25.43</v>
+        <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>274.28</v>
+        <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>25.43</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
     </row>
     <row r="423">
@@ -17398,7 +17398,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="K423" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
     </row>
     <row r="424">
@@ -17435,7 +17435,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -17464,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="K424" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
     </row>
     <row r="425">
@@ -17472,7 +17472,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="K425" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
     </row>
     <row r="426">
@@ -17509,7 +17509,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="K426" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
     </row>
     <row r="427">
@@ -17554,19 +17554,19 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5804.07</v>
+        <v>6103.78</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>25.43</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>274.28</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>25.43</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -18471,7 +18471,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -18482,16 +18482,16 @@
         <v>5804.07</v>
       </c>
       <c r="E452" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>24.18</v>
+        <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>275.53</v>
+        <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>24.18</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="K452" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="453">
@@ -18508,7 +18508,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="K453" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="454">
@@ -18545,7 +18545,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="K454" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="455">
@@ -18582,7 +18582,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="K455" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="456">
@@ -18619,7 +18619,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
@@ -18648,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="K456" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="457">
@@ -18656,7 +18656,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
     </row>
     <row r="458">
@@ -18701,19 +18701,19 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5504.37</v>
+        <v>5804.07</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>275.53</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -19592,16 +19592,16 @@
         <v>5504.37</v>
       </c>
       <c r="E482" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>22.93</v>
+        <v>0</v>
       </c>
       <c r="G482" t="n">
-        <v>276.77</v>
+        <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>22.93</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="K482" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="483">
@@ -19618,7 +19618,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E483" t="n">
         <v>0</v>
@@ -19647,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="K483" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="484">
@@ -19655,7 +19655,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E484" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="K484" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="485">
@@ -19692,7 +19692,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E485" t="n">
         <v>0</v>
@@ -19721,7 +19721,7 @@
         <v>0</v>
       </c>
       <c r="K485" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="486">
@@ -19729,7 +19729,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E486" t="n">
         <v>0</v>
@@ -19758,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="K486" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="487">
@@ -19766,7 +19766,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="K487" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
     </row>
     <row r="488">
@@ -19811,19 +19811,19 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>5204.66</v>
+        <v>5504.37</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F488" t="n">
-        <v>0</v>
+        <v>22.93</v>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>276.77</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>22.93</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -20691,7 +20691,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -20702,16 +20702,16 @@
         <v>5204.66</v>
       </c>
       <c r="E512" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="G512" t="n">
-        <v>278.02</v>
+        <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -20720,7 +20720,7 @@
         <v>0</v>
       </c>
       <c r="K512" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="513">
@@ -20728,7 +20728,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
       <c r="K513" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="514">
@@ -20765,7 +20765,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="K514" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="515">
@@ -20802,7 +20802,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="K515" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="516">
@@ -20839,7 +20839,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="K516" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="517">
@@ -20876,7 +20876,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="K517" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="518">
@@ -20913,7 +20913,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="K518" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
     </row>
     <row r="519">
@@ -20958,19 +20958,19 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>4904.95</v>
+        <v>5204.66</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F519" t="n">
-        <v>0</v>
+        <v>21.69</v>
       </c>
       <c r="G519" t="n">
-        <v>0</v>
+        <v>278.02</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>21.69</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -21801,7 +21801,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -21812,16 +21812,16 @@
         <v>4904.95</v>
       </c>
       <c r="E542" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>20.44</v>
+        <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>279.27</v>
+        <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>20.44</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="K542" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="543">
@@ -21838,7 +21838,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
@@ -21867,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="K543" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="544">
@@ -21875,7 +21875,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="K544" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="545">
@@ -21912,7 +21912,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="K545" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="546">
@@ -21949,7 +21949,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
@@ -21978,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="K546" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="547">
@@ -21986,7 +21986,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E547" t="n">
         <v>0</v>
@@ -22015,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="K547" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="548">
@@ -22023,7 +22023,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="K548" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
     </row>
     <row r="549">
@@ -22068,19 +22068,19 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>4605.24</v>
+        <v>4904.95</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>20.44</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>279.27</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>20.44</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -22922,16 +22922,16 @@
         <v>4605.24</v>
       </c>
       <c r="E572" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F572" t="n">
-        <v>19.19</v>
+        <v>0</v>
       </c>
       <c r="G572" t="n">
-        <v>280.52</v>
+        <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>19.19</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -22940,7 +22940,7 @@
         <v>0</v>
       </c>
       <c r="K572" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="573">
@@ -22948,7 +22948,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="K573" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="574">
@@ -22985,7 +22985,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
@@ -23014,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="K574" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="575">
@@ -23022,7 +23022,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -23051,7 +23051,7 @@
         <v>0</v>
       </c>
       <c r="K575" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="576">
@@ -23059,7 +23059,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -23088,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="K576" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="577">
@@ -23096,7 +23096,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="K577" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="578">
@@ -23133,7 +23133,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="K578" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="579">
@@ -23170,7 +23170,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="K579" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
     </row>
     <row r="580">
@@ -23215,19 +23215,19 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>4305.53</v>
+        <v>4605.24</v>
       </c>
       <c r="E580" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F580" t="n">
-        <v>0</v>
+        <v>19.19</v>
       </c>
       <c r="G580" t="n">
-        <v>0</v>
+        <v>280.52</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>19.19</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -24021,7 +24021,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -24032,16 +24032,16 @@
         <v>4305.53</v>
       </c>
       <c r="E602" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F602" t="n">
-        <v>17.94</v>
+        <v>0</v>
       </c>
       <c r="G602" t="n">
-        <v>281.77</v>
+        <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>17.94</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="K602" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="603">
@@ -24058,7 +24058,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E603" t="n">
         <v>0</v>
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="K603" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="604">
@@ -24095,7 +24095,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E604" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         <v>0</v>
       </c>
       <c r="K604" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="605">
@@ -24132,7 +24132,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E605" t="n">
         <v>0</v>
@@ -24161,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="K605" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="606">
@@ -24169,7 +24169,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E606" t="n">
         <v>0</v>
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="K606" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="607">
@@ -24206,7 +24206,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E607" t="n">
         <v>0</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="K607" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="608">
@@ -24243,7 +24243,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E608" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="K608" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="609">
@@ -24280,7 +24280,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E609" t="n">
         <v>0</v>
@@ -24309,7 +24309,7 @@
         <v>0</v>
       </c>
       <c r="K609" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="610">
@@ -24317,7 +24317,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E610" t="n">
         <v>0</v>
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="K610" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
     </row>
     <row r="611">
@@ -24362,19 +24362,19 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>4005.82</v>
+        <v>4305.53</v>
       </c>
       <c r="E611" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F611" t="n">
-        <v>0</v>
+        <v>17.94</v>
       </c>
       <c r="G611" t="n">
-        <v>0</v>
+        <v>281.77</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>17.94</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -25142,16 +25142,16 @@
         <v>4005.82</v>
       </c>
       <c r="E632" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>16.69</v>
+        <v>0</v>
       </c>
       <c r="G632" t="n">
-        <v>283.02</v>
+        <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>16.69</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="K632" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="633">
@@ -25168,7 +25168,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="K633" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="634">
@@ -25205,7 +25205,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E634" t="n">
         <v>0</v>
@@ -25234,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="K634" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="635">
@@ -25242,7 +25242,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E635" t="n">
         <v>0</v>
@@ -25271,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="K635" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="636">
@@ -25279,7 +25279,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E636" t="n">
         <v>0</v>
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="K636" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="637">
@@ -25316,7 +25316,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E637" t="n">
         <v>0</v>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
       <c r="K637" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="638">
@@ -25353,7 +25353,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E638" t="n">
         <v>0</v>
@@ -25382,7 +25382,7 @@
         <v>0</v>
       </c>
       <c r="K638" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="639">
@@ -25390,7 +25390,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
@@ -25419,7 +25419,7 @@
         <v>0</v>
       </c>
       <c r="K639" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="640">
@@ -25427,7 +25427,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E640" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="K640" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
     </row>
     <row r="641">
@@ -25472,19 +25472,19 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>3706.11</v>
+        <v>4005.82</v>
       </c>
       <c r="E641" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F641" t="n">
-        <v>0</v>
+        <v>16.69</v>
       </c>
       <c r="G641" t="n">
-        <v>0</v>
+        <v>283.02</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>16.69</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -26252,16 +26252,16 @@
         <v>3706.11</v>
       </c>
       <c r="E662" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F662" t="n">
-        <v>15.44</v>
+        <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>284.27</v>
+        <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>15.44</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -26270,7 +26270,7 @@
         <v>0</v>
       </c>
       <c r="K662" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="663">
@@ -26278,7 +26278,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E663" t="n">
         <v>0</v>
@@ -26307,7 +26307,7 @@
         <v>0</v>
       </c>
       <c r="K663" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="664">
@@ -26315,7 +26315,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E664" t="n">
         <v>0</v>
@@ -26344,7 +26344,7 @@
         <v>0</v>
       </c>
       <c r="K664" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="665">
@@ -26352,7 +26352,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E665" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="K665" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="666">
@@ -26389,7 +26389,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E666" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="K666" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="667">
@@ -26426,7 +26426,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E667" t="n">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="K667" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="668">
@@ -26463,7 +26463,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E668" t="n">
         <v>0</v>
@@ -26492,7 +26492,7 @@
         <v>0</v>
       </c>
       <c r="K668" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="669">
@@ -26500,7 +26500,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E669" t="n">
         <v>0</v>
@@ -26529,7 +26529,7 @@
         <v>0</v>
       </c>
       <c r="K669" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="670">
@@ -26537,7 +26537,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E670" t="n">
         <v>0</v>
@@ -26566,7 +26566,7 @@
         <v>0</v>
       </c>
       <c r="K670" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="671">
@@ -26574,7 +26574,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E671" t="n">
         <v>0</v>
@@ -26603,7 +26603,7 @@
         <v>0</v>
       </c>
       <c r="K671" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
     </row>
     <row r="672">
@@ -26619,19 +26619,19 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>3406.4</v>
+        <v>3706.11</v>
       </c>
       <c r="E672" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F672" t="n">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>284.27</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -27351,7 +27351,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
@@ -27362,16 +27362,16 @@
         <v>3406.4</v>
       </c>
       <c r="E692" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F692" t="n">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="G692" t="n">
-        <v>285.52</v>
+        <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -27380,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="K692" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="693">
@@ -27388,7 +27388,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E693" t="n">
         <v>0</v>
@@ -27417,7 +27417,7 @@
         <v>0</v>
       </c>
       <c r="K693" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="694">
@@ -27425,7 +27425,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E694" t="n">
         <v>0</v>
@@ -27454,7 +27454,7 @@
         <v>0</v>
       </c>
       <c r="K694" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="695">
@@ -27462,7 +27462,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E695" t="n">
         <v>0</v>
@@ -27491,7 +27491,7 @@
         <v>0</v>
       </c>
       <c r="K695" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="696">
@@ -27499,7 +27499,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E696" t="n">
         <v>0</v>
@@ -27528,7 +27528,7 @@
         <v>0</v>
       </c>
       <c r="K696" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="697">
@@ -27536,7 +27536,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E697" t="n">
         <v>0</v>
@@ -27565,7 +27565,7 @@
         <v>0</v>
       </c>
       <c r="K697" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="698">
@@ -27573,7 +27573,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E698" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="K698" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="699">
@@ -27610,7 +27610,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E699" t="n">
         <v>0</v>
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="K699" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="700">
@@ -27647,7 +27647,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E700" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="K700" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="701">
@@ -27684,7 +27684,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E701" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="K701" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
     </row>
     <row r="702">
@@ -27729,19 +27729,19 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>3106.69</v>
+        <v>3406.4</v>
       </c>
       <c r="E702" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F702" t="n">
-        <v>0</v>
+        <v>14.19</v>
       </c>
       <c r="G702" t="n">
-        <v>0</v>
+        <v>285.52</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>14.19</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -28461,7 +28461,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -28472,16 +28472,16 @@
         <v>3106.69</v>
       </c>
       <c r="E722" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F722" t="n">
-        <v>12.94</v>
+        <v>0</v>
       </c>
       <c r="G722" t="n">
-        <v>286.76</v>
+        <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>12.94</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -28490,7 +28490,7 @@
         <v>0</v>
       </c>
       <c r="K722" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="723">
@@ -28498,7 +28498,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E723" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="K723" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="724">
@@ -28535,7 +28535,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E724" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="K724" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="725">
@@ -28572,7 +28572,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E725" t="n">
         <v>0</v>
@@ -28601,7 +28601,7 @@
         <v>0</v>
       </c>
       <c r="K725" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="726">
@@ -28609,7 +28609,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E726" t="n">
         <v>0</v>
@@ -28638,7 +28638,7 @@
         <v>0</v>
       </c>
       <c r="K726" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="727">
@@ -28646,7 +28646,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E727" t="n">
         <v>0</v>
@@ -28675,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="K727" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="728">
@@ -28683,7 +28683,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E728" t="n">
         <v>0</v>
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="K728" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="729">
@@ -28720,7 +28720,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E729" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="K729" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="730">
@@ -28757,7 +28757,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E730" t="n">
         <v>0</v>
@@ -28786,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="K730" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="731">
@@ -28794,7 +28794,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E731" t="n">
         <v>0</v>
@@ -28823,7 +28823,7 @@
         <v>0</v>
       </c>
       <c r="K731" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="732">
@@ -28831,7 +28831,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E732" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="K732" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
     </row>
     <row r="733">
@@ -28876,19 +28876,19 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>2806.98</v>
+        <v>3106.69</v>
       </c>
       <c r="E733" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F733" t="n">
-        <v>0</v>
+        <v>12.94</v>
       </c>
       <c r="G733" t="n">
-        <v>0</v>
+        <v>286.76</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>12.94</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -29582,16 +29582,16 @@
         <v>2806.98</v>
       </c>
       <c r="E752" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F752" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="G752" t="n">
-        <v>288.01</v>
+        <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="K752" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="753">
@@ -29608,7 +29608,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E753" t="n">
         <v>0</v>
@@ -29637,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="K753" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="754">
@@ -29645,7 +29645,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E754" t="n">
         <v>0</v>
@@ -29674,7 +29674,7 @@
         <v>0</v>
       </c>
       <c r="K754" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="755">
@@ -29682,7 +29682,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E755" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="K755" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="756">
@@ -29719,7 +29719,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E756" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="K756" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="757">
@@ -29756,7 +29756,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E757" t="n">
         <v>0</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="K757" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="758">
@@ -29793,7 +29793,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E758" t="n">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="K758" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="759">
@@ -29830,7 +29830,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -29838,7 +29838,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E759" t="n">
         <v>0</v>
@@ -29859,7 +29859,7 @@
         <v>0</v>
       </c>
       <c r="K759" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="760">
@@ -29867,7 +29867,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E760" t="n">
         <v>0</v>
@@ -29896,7 +29896,7 @@
         <v>0</v>
       </c>
       <c r="K760" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="761">
@@ -29904,7 +29904,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E761" t="n">
         <v>0</v>
@@ -29933,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="K761" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="762">
@@ -29941,7 +29941,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E762" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="K762" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="763">
@@ -29978,7 +29978,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E763" t="n">
         <v>0</v>
@@ -30007,7 +30007,7 @@
         <v>0</v>
       </c>
       <c r="K763" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
     </row>
     <row r="764">
@@ -30023,19 +30023,19 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>2507.28</v>
+        <v>2806.98</v>
       </c>
       <c r="E764" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F764" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="G764" t="n">
-        <v>0</v>
+        <v>288.01</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
@@ -30681,7 +30681,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
@@ -30692,16 +30692,16 @@
         <v>2507.28</v>
       </c>
       <c r="E782" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F782" t="n">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="G782" t="n">
-        <v>289.26</v>
+        <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
@@ -30710,7 +30710,7 @@
         <v>0</v>
       </c>
       <c r="K782" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="783">
@@ -30718,7 +30718,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E783" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="K783" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="784">
@@ -30755,7 +30755,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E784" t="n">
         <v>0</v>
@@ -30784,7 +30784,7 @@
         <v>0</v>
       </c>
       <c r="K784" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="785">
@@ -30792,7 +30792,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E785" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="K785" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="786">
@@ -30829,7 +30829,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E786" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="K786" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="787">
@@ -30866,7 +30866,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E787" t="n">
         <v>0</v>
@@ -30895,7 +30895,7 @@
         <v>0</v>
       </c>
       <c r="K787" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="788">
@@ -30903,7 +30903,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E788" t="n">
         <v>0</v>
@@ -30932,7 +30932,7 @@
         <v>0</v>
       </c>
       <c r="K788" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="789">
@@ -30940,7 +30940,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E789" t="n">
         <v>0</v>
@@ -30969,7 +30969,7 @@
         <v>0</v>
       </c>
       <c r="K789" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="790">
@@ -30977,7 +30977,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E790" t="n">
         <v>0</v>
@@ -31006,7 +31006,7 @@
         <v>0</v>
       </c>
       <c r="K790" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="791">
@@ -31014,7 +31014,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C791" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E791" t="n">
         <v>0</v>
@@ -31043,7 +31043,7 @@
         <v>0</v>
       </c>
       <c r="K791" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="792">
@@ -31059,19 +31059,19 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>2207.57</v>
+        <v>2507.28</v>
       </c>
       <c r="E792" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F792" t="n">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="G792" t="n">
-        <v>0</v>
+        <v>289.26</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
@@ -31791,7 +31791,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C812" t="inlineStr">
         <is>
@@ -31802,16 +31802,16 @@
         <v>2207.57</v>
       </c>
       <c r="E812" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F812" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G812" t="n">
-        <v>290.51</v>
+        <v>0</v>
       </c>
       <c r="H812" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
@@ -31820,7 +31820,7 @@
         <v>0</v>
       </c>
       <c r="K812" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="813">
@@ -31828,7 +31828,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C813" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E813" t="n">
         <v>0</v>
@@ -31857,7 +31857,7 @@
         <v>0</v>
       </c>
       <c r="K813" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="814">
@@ -31865,7 +31865,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E814" t="n">
         <v>0</v>
@@ -31894,7 +31894,7 @@
         <v>0</v>
       </c>
       <c r="K814" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="815">
@@ -31902,7 +31902,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E815" t="n">
         <v>0</v>
@@ -31931,7 +31931,7 @@
         <v>0</v>
       </c>
       <c r="K815" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="816">
@@ -31939,7 +31939,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
@@ -31947,7 +31947,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E816" t="n">
         <v>0</v>
@@ -31968,7 +31968,7 @@
         <v>0</v>
       </c>
       <c r="K816" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="817">
@@ -31976,7 +31976,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E817" t="n">
         <v>0</v>
@@ -32005,7 +32005,7 @@
         <v>0</v>
       </c>
       <c r="K817" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="818">
@@ -32013,7 +32013,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C818" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E818" t="n">
         <v>0</v>
@@ -32042,7 +32042,7 @@
         <v>0</v>
       </c>
       <c r="K818" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="819">
@@ -32050,7 +32050,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C819" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E819" t="n">
         <v>0</v>
@@ -32079,7 +32079,7 @@
         <v>0</v>
       </c>
       <c r="K819" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="820">
@@ -32087,7 +32087,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C820" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E820" t="n">
         <v>0</v>
@@ -32116,7 +32116,7 @@
         <v>0</v>
       </c>
       <c r="K820" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="821">
@@ -32124,7 +32124,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C821" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E821" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="K821" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="822">
@@ -32161,7 +32161,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E822" t="n">
         <v>0</v>
@@ -32190,7 +32190,7 @@
         <v>0</v>
       </c>
       <c r="K822" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
     </row>
     <row r="823">
@@ -32206,19 +32206,19 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>1907.86</v>
+        <v>2207.57</v>
       </c>
       <c r="E823" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F823" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G823" t="n">
-        <v>0</v>
+        <v>290.51</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C842" t="inlineStr">
         <is>
@@ -32912,16 +32912,16 @@
         <v>1907.86</v>
       </c>
       <c r="E842" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F842" t="n">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="G842" t="n">
-        <v>291.76</v>
+        <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
@@ -32930,7 +32930,7 @@
         <v>0</v>
       </c>
       <c r="K842" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="843">
@@ -32938,7 +32938,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E843" t="n">
         <v>0</v>
@@ -32967,7 +32967,7 @@
         <v>0</v>
       </c>
       <c r="K843" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="844">
@@ -32975,7 +32975,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E844" t="n">
         <v>0</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="K844" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="845">
@@ -33012,7 +33012,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E845" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>0</v>
       </c>
       <c r="K845" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="846">
@@ -33049,7 +33049,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E846" t="n">
         <v>0</v>
@@ -33078,7 +33078,7 @@
         <v>0</v>
       </c>
       <c r="K846" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="847">
@@ -33086,7 +33086,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E847" t="n">
         <v>0</v>
@@ -33115,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="K847" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="848">
@@ -33123,7 +33123,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E848" t="n">
         <v>0</v>
@@ -33152,7 +33152,7 @@
         <v>0</v>
       </c>
       <c r="K848" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="849">
@@ -33160,7 +33160,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C849" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E849" t="n">
         <v>0</v>
@@ -33189,7 +33189,7 @@
         <v>0</v>
       </c>
       <c r="K849" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="850">
@@ -33197,7 +33197,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E850" t="n">
         <v>0</v>
@@ -33226,7 +33226,7 @@
         <v>0</v>
       </c>
       <c r="K850" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="851">
@@ -33234,7 +33234,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C851" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E851" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>0</v>
       </c>
       <c r="K851" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="852">
@@ -33271,7 +33271,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C852" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E852" t="n">
         <v>0</v>
@@ -33300,7 +33300,7 @@
         <v>0</v>
       </c>
       <c r="K852" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
     </row>
     <row r="853">
@@ -33316,19 +33316,19 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>1608.15</v>
+        <v>1907.86</v>
       </c>
       <c r="E853" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F853" t="n">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="G853" t="n">
-        <v>0</v>
+        <v>291.76</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
@@ -34011,7 +34011,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C872" t="inlineStr">
         <is>
@@ -34022,16 +34022,16 @@
         <v>1608.15</v>
       </c>
       <c r="E872" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F872" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="G872" t="n">
-        <v>293.01</v>
+        <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="I872" t="n">
         <v>0</v>
@@ -34040,7 +34040,7 @@
         <v>0</v>
       </c>
       <c r="K872" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="873">
@@ -34048,7 +34048,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C873" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E873" t="n">
         <v>0</v>
@@ -34077,7 +34077,7 @@
         <v>0</v>
       </c>
       <c r="K873" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="874">
@@ -34085,7 +34085,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E874" t="n">
         <v>0</v>
@@ -34114,7 +34114,7 @@
         <v>0</v>
       </c>
       <c r="K874" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="875">
@@ -34122,7 +34122,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C875" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E875" t="n">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>0</v>
       </c>
       <c r="K875" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="876">
@@ -34159,7 +34159,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C876" t="inlineStr">
         <is>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E876" t="n">
         <v>0</v>
@@ -34188,7 +34188,7 @@
         <v>0</v>
       </c>
       <c r="K876" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="877">
@@ -34196,7 +34196,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C877" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E877" t="n">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
       <c r="K877" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="878">
@@ -34233,7 +34233,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C878" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E878" t="n">
         <v>0</v>
@@ -34262,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="K878" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="879">
@@ -34270,7 +34270,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C879" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E879" t="n">
         <v>0</v>
@@ -34299,7 +34299,7 @@
         <v>0</v>
       </c>
       <c r="K879" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="880">
@@ -34307,7 +34307,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C880" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E880" t="n">
         <v>0</v>
@@ -34336,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="K880" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="881">
@@ -34344,7 +34344,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C881" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E881" t="n">
         <v>0</v>
@@ -34373,7 +34373,7 @@
         <v>0</v>
       </c>
       <c r="K881" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="882">
@@ -34381,7 +34381,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C882" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E882" t="n">
         <v>0</v>
@@ -34410,7 +34410,7 @@
         <v>0</v>
       </c>
       <c r="K882" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="883">
@@ -34418,7 +34418,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C883" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E883" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>0</v>
       </c>
       <c r="K883" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
     </row>
     <row r="884">
@@ -34463,19 +34463,19 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>1308.44</v>
+        <v>1608.15</v>
       </c>
       <c r="E884" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F884" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="G884" t="n">
-        <v>0</v>
+        <v>293.01</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
@@ -35121,7 +35121,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
@@ -35132,16 +35132,16 @@
         <v>1308.44</v>
       </c>
       <c r="E902" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F902" t="n">
-        <v>5.45</v>
+        <v>0</v>
       </c>
       <c r="G902" t="n">
-        <v>294.26</v>
+        <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>5.45</v>
+        <v>0</v>
       </c>
       <c r="I902" t="n">
         <v>0</v>
@@ -35150,7 +35150,7 @@
         <v>0</v>
       </c>
       <c r="K902" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="903">
@@ -35158,7 +35158,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E903" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="K903" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="904">
@@ -35195,7 +35195,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E904" t="n">
         <v>0</v>
@@ -35224,7 +35224,7 @@
         <v>0</v>
       </c>
       <c r="K904" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="905">
@@ -35232,7 +35232,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E905" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="K905" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="906">
@@ -35269,7 +35269,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E906" t="n">
         <v>0</v>
@@ -35298,7 +35298,7 @@
         <v>0</v>
       </c>
       <c r="K906" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="907">
@@ -35306,7 +35306,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E907" t="n">
         <v>0</v>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="K907" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="908">
@@ -35343,7 +35343,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E908" t="n">
         <v>0</v>
@@ -35372,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="K908" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="909">
@@ -35380,7 +35380,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E909" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="K909" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="910">
@@ -35417,7 +35417,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
@@ -35425,7 +35425,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E910" t="n">
         <v>0</v>
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
       <c r="K910" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="911">
@@ -35454,7 +35454,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C911" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E911" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="K911" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="912">
@@ -35491,7 +35491,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C912" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E912" t="n">
         <v>0</v>
@@ -35520,7 +35520,7 @@
         <v>0</v>
       </c>
       <c r="K912" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="913">
@@ -35528,7 +35528,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C913" t="inlineStr">
         <is>
@@ -35536,7 +35536,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E913" t="n">
         <v>0</v>
@@ -35557,7 +35557,7 @@
         <v>0</v>
       </c>
       <c r="K913" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
     </row>
     <row r="914">
@@ -35573,19 +35573,19 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>1008.73</v>
+        <v>1308.44</v>
       </c>
       <c r="E914" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F914" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="G914" t="n">
-        <v>0</v>
+        <v>294.26</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="I914" t="n">
         <v>0</v>
@@ -36231,7 +36231,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
@@ -36242,16 +36242,16 @@
         <v>1008.73</v>
       </c>
       <c r="E932" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F932" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G932" t="n">
-        <v>295.51</v>
+        <v>0</v>
       </c>
       <c r="H932" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="n">
         <v>0</v>
@@ -36260,7 +36260,7 @@
         <v>0</v>
       </c>
       <c r="K932" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="933">
@@ -36268,7 +36268,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E933" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>0</v>
       </c>
       <c r="K933" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="934">
@@ -36305,7 +36305,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E934" t="n">
         <v>0</v>
@@ -36334,7 +36334,7 @@
         <v>0</v>
       </c>
       <c r="K934" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="935">
@@ -36342,7 +36342,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C935" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E935" t="n">
         <v>0</v>
@@ -36371,7 +36371,7 @@
         <v>0</v>
       </c>
       <c r="K935" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="936">
@@ -36379,7 +36379,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C936" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E936" t="n">
         <v>0</v>
@@ -36408,7 +36408,7 @@
         <v>0</v>
       </c>
       <c r="K936" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="937">
@@ -36416,7 +36416,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E937" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="K937" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="938">
@@ -36453,7 +36453,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C938" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E938" t="n">
         <v>0</v>
@@ -36482,7 +36482,7 @@
         <v>0</v>
       </c>
       <c r="K938" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="939">
@@ -36490,7 +36490,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C939" t="inlineStr">
         <is>
@@ -36498,7 +36498,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E939" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>0</v>
       </c>
       <c r="K939" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="940">
@@ -36527,7 +36527,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C940" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E940" t="n">
         <v>0</v>
@@ -36556,7 +36556,7 @@
         <v>0</v>
       </c>
       <c r="K940" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="941">
@@ -36564,7 +36564,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C941" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E941" t="n">
         <v>0</v>
@@ -36593,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="K941" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="942">
@@ -36601,7 +36601,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C942" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E942" t="n">
         <v>0</v>
@@ -36630,7 +36630,7 @@
         <v>0</v>
       </c>
       <c r="K942" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="943">
@@ -36638,7 +36638,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C943" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E943" t="n">
         <v>0</v>
@@ -36667,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="K943" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="944">
@@ -36675,7 +36675,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C944" t="inlineStr">
         <is>
@@ -36683,7 +36683,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E944" t="n">
         <v>0</v>
@@ -36704,7 +36704,7 @@
         <v>0</v>
       </c>
       <c r="K944" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
     </row>
     <row r="945">
@@ -36720,19 +36720,19 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>709.02</v>
+        <v>1008.73</v>
       </c>
       <c r="E945" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F945" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G945" t="n">
-        <v>0</v>
+        <v>295.51</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I945" t="n">
         <v>0</v>
@@ -37341,7 +37341,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
@@ -37352,16 +37352,16 @@
         <v>709.02</v>
       </c>
       <c r="E962" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F962" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="G962" t="n">
-        <v>296.75</v>
+        <v>0</v>
       </c>
       <c r="H962" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I962" t="n">
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="K962" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="963">
@@ -37378,7 +37378,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C963" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E963" t="n">
         <v>0</v>
@@ -37407,7 +37407,7 @@
         <v>0</v>
       </c>
       <c r="K963" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="964">
@@ -37415,7 +37415,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C964" t="inlineStr">
         <is>
@@ -37423,7 +37423,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E964" t="n">
         <v>0</v>
@@ -37444,7 +37444,7 @@
         <v>0</v>
       </c>
       <c r="K964" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="965">
@@ -37452,7 +37452,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C965" t="inlineStr">
         <is>
@@ -37460,7 +37460,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E965" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>0</v>
       </c>
       <c r="K965" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="966">
@@ -37489,7 +37489,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C966" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E966" t="n">
         <v>0</v>
@@ -37518,7 +37518,7 @@
         <v>0</v>
       </c>
       <c r="K966" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="967">
@@ -37526,7 +37526,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C967" t="inlineStr">
         <is>
@@ -37534,7 +37534,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E967" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="K967" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="968">
@@ -37563,7 +37563,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C968" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E968" t="n">
         <v>0</v>
@@ -37592,7 +37592,7 @@
         <v>0</v>
       </c>
       <c r="K968" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="969">
@@ -37600,7 +37600,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E969" t="n">
         <v>0</v>
@@ -37629,7 +37629,7 @@
         <v>0</v>
       </c>
       <c r="K969" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="970">
@@ -37637,7 +37637,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C970" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E970" t="n">
         <v>0</v>
@@ -37666,7 +37666,7 @@
         <v>0</v>
       </c>
       <c r="K970" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="971">
@@ -37674,7 +37674,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E971" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K971" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="972">
@@ -37711,7 +37711,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C972" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E972" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="K972" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="973">
@@ -37748,7 +37748,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C973" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E973" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="K973" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="974">
@@ -37785,7 +37785,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E974" t="n">
         <v>0</v>
@@ -37814,7 +37814,7 @@
         <v>0</v>
       </c>
       <c r="K974" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="975">
@@ -37822,7 +37822,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C975" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E975" t="n">
         <v>0</v>
@@ -37851,7 +37851,7 @@
         <v>0</v>
       </c>
       <c r="K975" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
     </row>
     <row r="976">
@@ -37867,19 +37867,19 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>409.31</v>
+        <v>709.02</v>
       </c>
       <c r="E976" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F976" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="G976" t="n">
-        <v>0</v>
+        <v>296.75</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I976" t="n">
         <v>0</v>
@@ -38451,7 +38451,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C992" t="inlineStr">
         <is>
@@ -38462,16 +38462,16 @@
         <v>409.31</v>
       </c>
       <c r="E992" t="n">
-        <v>299.71</v>
+        <v>0</v>
       </c>
       <c r="F992" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="G992" t="n">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="H992" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="I992" t="n">
         <v>0</v>
@@ -38480,7 +38480,7 @@
         <v>0</v>
       </c>
       <c r="K992" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="993">
@@ -38488,7 +38488,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C993" t="inlineStr">
         <is>
@@ -38496,7 +38496,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E993" t="n">
         <v>0</v>
@@ -38517,7 +38517,7 @@
         <v>0</v>
       </c>
       <c r="K993" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="994">
@@ -38525,7 +38525,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C994" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E994" t="n">
         <v>0</v>
@@ -38554,7 +38554,7 @@
         <v>0</v>
       </c>
       <c r="K994" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="995">
@@ -38562,7 +38562,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C995" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E995" t="n">
         <v>0</v>
@@ -38591,7 +38591,7 @@
         <v>0</v>
       </c>
       <c r="K995" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="996">
@@ -38599,7 +38599,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C996" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E996" t="n">
         <v>0</v>
@@ -38628,7 +38628,7 @@
         <v>0</v>
       </c>
       <c r="K996" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="997">
@@ -38636,7 +38636,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C997" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E997" t="n">
         <v>0</v>
@@ -38665,7 +38665,7 @@
         <v>0</v>
       </c>
       <c r="K997" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="998">
@@ -38673,7 +38673,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E998" t="n">
         <v>0</v>
@@ -38702,7 +38702,7 @@
         <v>0</v>
       </c>
       <c r="K998" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="999">
@@ -38710,7 +38710,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E999" t="n">
         <v>0</v>
@@ -38739,7 +38739,7 @@
         <v>0</v>
       </c>
       <c r="K999" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1000">
@@ -38747,7 +38747,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1000" t="n">
         <v>0</v>
@@ -38776,7 +38776,7 @@
         <v>0</v>
       </c>
       <c r="K1000" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1001">
@@ -38784,7 +38784,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1001" t="n">
         <v>0</v>
@@ -38813,7 +38813,7 @@
         <v>0</v>
       </c>
       <c r="K1001" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1002">
@@ -38821,7 +38821,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1002" t="n">
         <v>0</v>
@@ -38850,7 +38850,7 @@
         <v>0</v>
       </c>
       <c r="K1002" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1003">
@@ -38858,7 +38858,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1003" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1003" t="n">
         <v>0</v>
@@ -38887,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="K1003" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1004">
@@ -38895,7 +38895,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1004" t="n">
         <v>0</v>
@@ -38924,7 +38924,7 @@
         <v>0</v>
       </c>
       <c r="K1004" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1005">
@@ -38932,7 +38932,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1005" t="n">
         <v>0</v>
@@ -38961,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="K1005" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
     </row>
     <row r="1006">
@@ -38977,19 +38977,19 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>109.6</v>
+        <v>409.31</v>
       </c>
       <c r="E1006" t="n">
-        <v>0</v>
+        <v>299.71</v>
       </c>
       <c r="F1006" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="G1006" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="I1006" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
@@ -39572,25 +39572,25 @@
         <v>109.6</v>
       </c>
       <c r="E1022" t="n">
-        <v>110.06</v>
+        <v>0</v>
       </c>
       <c r="F1022" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1022" t="n">
         <v>109.6</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1022" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="1023">
@@ -39598,7 +39598,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1023" t="n">
         <v>0</v>
@@ -39627,7 +39627,7 @@
         <v>0</v>
       </c>
       <c r="K1023" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1024">
@@ -39635,7 +39635,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1024" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="K1024" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1025">
@@ -39672,7 +39672,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
@@ -39680,7 +39680,7 @@
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1025" t="n">
         <v>0</v>
@@ -39701,7 +39701,7 @@
         <v>0</v>
       </c>
       <c r="K1025" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1026">
@@ -39709,7 +39709,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1026" t="n">
         <v>0</v>
@@ -39738,7 +39738,7 @@
         <v>0</v>
       </c>
       <c r="K1026" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1027">
@@ -39746,7 +39746,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1027" t="n">
         <v>0</v>
@@ -39775,7 +39775,7 @@
         <v>0</v>
       </c>
       <c r="K1027" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1028">
@@ -39783,7 +39783,7 @@
         <v>1026</v>
       </c>
       <c r="B1028" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1028" t="n">
         <v>0</v>
@@ -39812,7 +39812,7 @@
         <v>0</v>
       </c>
       <c r="K1028" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1029">
@@ -39820,7 +39820,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1029" t="n">
         <v>0</v>
@@ -39849,7 +39849,7 @@
         <v>0</v>
       </c>
       <c r="K1029" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1030">
@@ -39857,7 +39857,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1030" t="n">
         <v>0</v>
@@ -39886,7 +39886,7 @@
         <v>0</v>
       </c>
       <c r="K1030" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1031">
@@ -39894,7 +39894,7 @@
         <v>1029</v>
       </c>
       <c r="B1031" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1031" t="n">
         <v>0</v>
@@ -39923,7 +39923,7 @@
         <v>0</v>
       </c>
       <c r="K1031" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1032">
@@ -39931,7 +39931,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1032" t="n">
         <v>0</v>
@@ -39960,7 +39960,7 @@
         <v>0</v>
       </c>
       <c r="K1032" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1033">
@@ -39968,7 +39968,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1033" t="n">
         <v>0</v>
@@ -39997,7 +39997,7 @@
         <v>0</v>
       </c>
       <c r="K1033" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1034">
@@ -40005,7 +40005,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
@@ -40013,7 +40013,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1034" t="n">
         <v>0</v>
@@ -40034,7 +40034,7 @@
         <v>0</v>
       </c>
       <c r="K1034" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1035">
@@ -40042,7 +40042,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1035" t="n">
         <v>0</v>
@@ -40071,7 +40071,7 @@
         <v>0</v>
       </c>
       <c r="K1035" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1036">
@@ -40079,7 +40079,7 @@
         <v>1034</v>
       </c>
       <c r="B1036" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1036" t="n">
         <v>0</v>
@@ -40108,7 +40108,7 @@
         <v>0</v>
       </c>
       <c r="K1036" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1037">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E1037" t="n">
-        <v>0</v>
+        <v>110.06</v>
       </c>
       <c r="F1037" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="G1037" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="H1037" t="n">
         <v>0</v>
@@ -40671,7 +40671,7 @@
         <v>1050</v>
       </c>
       <c r="B1052" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
@@ -40782,7 +40782,7 @@
         <v>1053</v>
       </c>
       <c r="B1055" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>1055</v>
       </c>
       <c r="B1057" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>1056</v>
       </c>
       <c r="B1058" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
@@ -40930,7 +40930,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
@@ -40967,7 +40967,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
@@ -41004,7 +41004,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>1061</v>
       </c>
       <c r="B1063" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>1062</v>
       </c>
       <c r="B1064" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>1063</v>
       </c>
       <c r="B1065" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>1064</v>
       </c>
       <c r="B1066" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
@@ -41781,35 +41781,627 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>09-01-2027</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>10-01-2027</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>11-01-2027</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>12-01-2027</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>13-01-2027</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>14-01-2027</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>15-01-2027</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>16-01-2027</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>17-01-2027</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>18-01-2027</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>19-01-2027</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>20-01-2027</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>21-01-2027</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>22-01-2027</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>23-01-2027</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>24-01-2027</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
         <v>36</v>
       </c>
-      <c r="C1082" t="inlineStr">
-        <is>
-          <t>09-01-2027</t>
-        </is>
-      </c>
-      <c r="D1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1082" t="n">
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>25-01-2027</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1098" t="n">
         <v>0</v>
       </c>
     </row>
